--- a/data/trans_orig/P05A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>622869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>605083</v>
+        <v>604328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>637505</v>
+        <v>637652</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8974895766235608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8718627895933275</v>
+        <v>0.8707752713522745</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9185792965275337</v>
+        <v>0.918791594552226</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>631</v>
@@ -765,19 +765,19 @@
         <v>623888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>607915</v>
+        <v>607022</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>636797</v>
+        <v>636776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9077269946492271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8844870676688624</v>
+        <v>0.8831872346016022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9265089518697697</v>
+        <v>0.9264782950396985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1244</v>
@@ -786,19 +786,19 @@
         <v>1246757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1222840</v>
+        <v>1225603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1266941</v>
+        <v>1267938</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.902583443184981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8852690921803679</v>
+        <v>0.8872695679875636</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9171959154404882</v>
+        <v>0.9179173134794417</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>63245</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48682</v>
+        <v>49165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79167</v>
+        <v>79979</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09113013754794554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07014598758716288</v>
+        <v>0.07084235018962368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1140713653817064</v>
+        <v>0.1152421731604755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -836,19 +836,19 @@
         <v>54642</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43086</v>
+        <v>42111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69890</v>
+        <v>70819</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07950110693488581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06268808857486094</v>
+        <v>0.06126970945582536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.101687170459119</v>
+        <v>0.1030377202730075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -857,19 +857,19 @@
         <v>117887</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>98795</v>
+        <v>98261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140244</v>
+        <v>138498</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08534384162517639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07152246894851476</v>
+        <v>0.07113526976264367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1015290613603129</v>
+        <v>0.1002647354964091</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>7898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3604</v>
+        <v>3611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01138028582849373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005192809419678902</v>
+        <v>0.00520255534119858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02234892708605608</v>
+        <v>0.02220475280754415</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>8778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3846</v>
+        <v>3937</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16345</v>
+        <v>16651</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01277189841588707</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005596328132908278</v>
+        <v>0.005728548494717099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02378115012989514</v>
+        <v>0.02422668309092361</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -928,19 +928,19 @@
         <v>16676</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9346</v>
+        <v>9778</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26162</v>
+        <v>25684</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01207271518984268</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006765865203699383</v>
+        <v>0.007078783831490533</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01893951826205694</v>
+        <v>0.01859358702424498</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>830063</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>808584</v>
+        <v>808522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>851595</v>
+        <v>849559</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8686718382091266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8461936605562315</v>
+        <v>0.846128625665953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8912059836286516</v>
+        <v>0.8890748848674324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>787</v>
@@ -1053,19 +1053,19 @@
         <v>832276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>809472</v>
+        <v>806487</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>853975</v>
+        <v>852059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8624254111860182</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8387954562037708</v>
+        <v>0.8357020012671105</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8849104497006582</v>
+        <v>0.8829255190995029</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1561</v>
@@ -1074,19 +1074,19 @@
         <v>1662339</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1629522</v>
+        <v>1628231</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1690680</v>
+        <v>1691710</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8655331958287525</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.848446363608837</v>
+        <v>0.8477744931006129</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8802896299823797</v>
+        <v>0.8808261757159487</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>107133</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>88325</v>
+        <v>87711</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>127101</v>
+        <v>126792</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1121161574086941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09243303173240414</v>
+        <v>0.09179063313716067</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1330124932366502</v>
+        <v>0.1326894845192842</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>96</v>
@@ -1124,19 +1124,19 @@
         <v>107993</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>89324</v>
+        <v>89017</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>130434</v>
+        <v>129977</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1119052161581559</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09255967031116605</v>
+        <v>0.09224215918283873</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1351588639730345</v>
+        <v>0.1346858469668362</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>196</v>
@@ -1145,19 +1145,19 @@
         <v>215126</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>189566</v>
+        <v>187142</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243865</v>
+        <v>244555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1120101657519823</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09870153019834869</v>
+        <v>0.09743956588332223</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1269735856521685</v>
+        <v>0.1273330655323991</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>18358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11260</v>
+        <v>10631</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29663</v>
+        <v>29647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01921200438217924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01178389087572025</v>
+        <v>0.01112498363658513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03104252491529983</v>
+        <v>0.03102644176078294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1195,19 +1195,19 @@
         <v>24772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16037</v>
+        <v>16480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37234</v>
+        <v>38444</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02566937265582588</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01661796841876459</v>
+        <v>0.01707677828878373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03858333331090195</v>
+        <v>0.03983628296805381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1216,19 +1216,19 @@
         <v>43130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31980</v>
+        <v>31452</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60100</v>
+        <v>58868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02245663841926514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01665086883510615</v>
+        <v>0.01637641185483504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03129214410864411</v>
+        <v>0.03065108488070171</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>521255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>497965</v>
+        <v>496229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>541854</v>
+        <v>541911</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7735906182769944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7390266056295866</v>
+        <v>0.736450704223524</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8041626634069395</v>
+        <v>0.804247230504016</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>558</v>
@@ -1341,19 +1341,19 @@
         <v>547425</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>526504</v>
+        <v>526573</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>567005</v>
+        <v>566631</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.804206094195608</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7734722630851389</v>
+        <v>0.7735741234021448</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8329708258973437</v>
+        <v>0.8324209469503558</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1052</v>
@@ -1362,19 +1362,19 @@
         <v>1068679</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1039719</v>
+        <v>1037128</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1100955</v>
+        <v>1096684</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7889762230338326</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7675956430583034</v>
+        <v>0.7656828798995725</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8128045703177846</v>
+        <v>0.8096513664242236</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>133715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113328</v>
+        <v>113994</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156291</v>
+        <v>158096</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1984462245934042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1681897817588215</v>
+        <v>0.1691777909670765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2319497489268755</v>
+        <v>0.2346294940488358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -1412,19 +1412,19 @@
         <v>110312</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93064</v>
+        <v>90793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130269</v>
+        <v>128624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1620562283574233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1367173008448466</v>
+        <v>0.1333816560917261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1913743198887364</v>
+        <v>0.1889576712868533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -1433,19 +1433,19 @@
         <v>244027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>214432</v>
+        <v>219589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273927</v>
+        <v>273815</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.180158672876815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1583093913013997</v>
+        <v>0.1621165152879546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2022327500919116</v>
+        <v>0.2021501595525581</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>18842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10511</v>
+        <v>11431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29101</v>
+        <v>31724</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02796315712960145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0155986941461554</v>
+        <v>0.01696460501050176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04318927453052891</v>
+        <v>0.04708140162242609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1483,19 +1483,19 @@
         <v>22965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15009</v>
+        <v>14628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33549</v>
+        <v>33476</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03373767744696881</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0220492923802207</v>
+        <v>0.02148976981206785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04928533201428447</v>
+        <v>0.04917886450934297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -1504,19 +1504,19 @@
         <v>41807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28884</v>
+        <v>29576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55572</v>
+        <v>55647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03086510408935232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0213241675944653</v>
+        <v>0.0218353875821409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04102749987372387</v>
+        <v>0.04108255256642439</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>710674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>685685</v>
+        <v>684866</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>736313</v>
+        <v>734084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7669228488097557</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7399551361105327</v>
+        <v>0.739071685866178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7945907299531596</v>
+        <v>0.7921852700950763</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>727</v>
@@ -1629,19 +1629,19 @@
         <v>753937</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>721227</v>
+        <v>725596</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>780589</v>
+        <v>782632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7331182954754691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7013115980675169</v>
+        <v>0.7055603479796614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7590347477974785</v>
+        <v>0.76102160185682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1478</v>
@@ -1650,19 +1650,19 @@
         <v>1464611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1427504</v>
+        <v>1423142</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1504231</v>
+        <v>1499840</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7491409882740653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7301609009177871</v>
+        <v>0.7279295103841324</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.769406390542409</v>
+        <v>0.7671603776676031</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>171291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147724</v>
+        <v>149753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193623</v>
+        <v>195820</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1848487877395915</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1594155670979558</v>
+        <v>0.1616052532281404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2089474843589849</v>
+        <v>0.2113184065182942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>220</v>
@@ -1700,19 +1700,19 @@
         <v>232779</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206222</v>
+        <v>206505</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>264992</v>
+        <v>258778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.226351347744748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2005274041019138</v>
+        <v>0.2008023445463359</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2576746895779647</v>
+        <v>0.251632244002549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -1721,19 +1721,19 @@
         <v>404070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367383</v>
+        <v>371537</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>438532</v>
+        <v>445586</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2066799513283528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1879146907301891</v>
+        <v>0.1900390044663934</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2243065924407077</v>
+        <v>0.2279148833940227</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>44691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33690</v>
+        <v>33158</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59906</v>
+        <v>59166</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04822836345065275</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03635690298611199</v>
+        <v>0.03578226928050725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06464754256222802</v>
+        <v>0.06384914645629655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -1771,19 +1771,19 @@
         <v>41681</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29785</v>
+        <v>29379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55820</v>
+        <v>54898</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04053035677978287</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0289630283359506</v>
+        <v>0.02856745163648136</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05427896633717433</v>
+        <v>0.05338230379196632</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -1792,19 +1792,19 @@
         <v>86372</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>69689</v>
+        <v>69360</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>108213</v>
+        <v>104825</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04417906039758191</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0356456756411655</v>
+        <v>0.03547743373815259</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05535025328739657</v>
+        <v>0.05361758251814151</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2684860</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2642955</v>
+        <v>2635690</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2728616</v>
+        <v>2728037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8261020120350301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8132082666673971</v>
+        <v>0.810972800545828</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8395650107940882</v>
+        <v>0.8393869898028913</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2703</v>
@@ -1917,19 +1917,19 @@
         <v>2757525</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2710256</v>
+        <v>2714539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2803989</v>
+        <v>2804326</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8203385294266066</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.806276319664555</v>
+        <v>0.8075506388636946</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8341609141896589</v>
+        <v>0.8342614265895408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5335</v>
@@ -1938,19 +1938,19 @@
         <v>5442386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5377395</v>
+        <v>5382809</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5504750</v>
+        <v>5504000</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8231717088889045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8133417683983388</v>
+        <v>0.814160589373249</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8326043596598954</v>
+        <v>0.8324910371189155</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>475385</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>436145</v>
+        <v>436595</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>512932</v>
+        <v>521859</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1462708308913893</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1341969755421832</v>
+        <v>0.1343354929857836</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1578234705935006</v>
+        <v>0.1605704185221701</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>483</v>
@@ -1988,19 +1988,19 @@
         <v>505726</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>463762</v>
+        <v>465847</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>548421</v>
+        <v>544982</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1504488158806443</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1379650438087042</v>
+        <v>0.1385852924144979</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1631501523775635</v>
+        <v>0.1621271604832091</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>952</v>
@@ -2009,19 +2009,19 @@
         <v>981111</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>923781</v>
+        <v>923661</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1042122</v>
+        <v>1036692</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1483950261723096</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1397237903119491</v>
+        <v>0.1397056120939882</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1576229792870585</v>
+        <v>0.1568017882641656</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>89789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72249</v>
+        <v>73604</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107728</v>
+        <v>112933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0276271570735806</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02223019340301642</v>
+        <v>0.02264711734809876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03314671858759367</v>
+        <v>0.03474811192282472</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -2059,19 +2059,19 @@
         <v>98197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79264</v>
+        <v>78883</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119194</v>
+        <v>119193</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02921265469274908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02358026303104099</v>
+        <v>0.02346692543884271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03545922112115256</v>
+        <v>0.03545878890572022</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -2080,19 +2080,19 @@
         <v>187986</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>160918</v>
+        <v>162873</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216036</v>
+        <v>218939</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02843326493878588</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02433915310034036</v>
+        <v>0.02463487894411803</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03267589258653186</v>
+        <v>0.03311502775693384</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>682255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>672333</v>
+        <v>672120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>688862</v>
+        <v>689127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9756081775496562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9614206083996498</v>
+        <v>0.9611163486645663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9850571890198978</v>
+        <v>0.9854362550473855</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>620</v>
@@ -2445,19 +2445,19 @@
         <v>661111</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>645588</v>
+        <v>648318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>671037</v>
+        <v>672217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9547385964881723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9323221270731389</v>
+        <v>0.9362639926817912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9690739480317344</v>
+        <v>0.9707777147141343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1273</v>
@@ -2466,19 +2466,19 @@
         <v>1343365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1326867</v>
+        <v>1326094</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1356945</v>
+        <v>1356734</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9652248234664206</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9533706024628186</v>
+        <v>0.952815153229031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9749822175730074</v>
+        <v>0.9748304320182716</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>17057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10450</v>
+        <v>10185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26979</v>
+        <v>27192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02439182245034379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01494281098010223</v>
+        <v>0.01456374495261447</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03857939160035028</v>
+        <v>0.03888365133543373</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -2516,19 +2516,19 @@
         <v>25801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16462</v>
+        <v>15130</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39277</v>
+        <v>38730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03726091858919809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02377360628152101</v>
+        <v>0.02184972286536037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05672160670602693</v>
+        <v>0.05593151205235863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -2537,19 +2537,19 @@
         <v>42859</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30604</v>
+        <v>30191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59563</v>
+        <v>59704</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03079465255734278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02198912052430113</v>
+        <v>0.02169284920450015</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04279708902495948</v>
+        <v>0.04289842195656666</v>
       </c>
     </row>
     <row r="6">
@@ -2579,19 +2579,19 @@
         <v>5540</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1935</v>
+        <v>1887</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12221</v>
+        <v>13436</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008000484922629638</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002794169990678557</v>
+        <v>0.002724712397834606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01764842491619564</v>
+        <v>0.01940343399273711</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -2600,19 +2600,19 @@
         <v>5540</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1879</v>
+        <v>1925</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13059</v>
+        <v>13603</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003980523976236688</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001349790232087073</v>
+        <v>0.001383337888054871</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009382730806256925</v>
+        <v>0.009773702994658335</v>
       </c>
     </row>
     <row r="7">
@@ -2704,19 +2704,19 @@
         <v>893354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>869935</v>
+        <v>870912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>912896</v>
+        <v>914986</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8840633598805249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8608880000702136</v>
+        <v>0.861854978623962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9034025626767691</v>
+        <v>0.9054704940432907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>826</v>
@@ -2725,19 +2725,19 @@
         <v>905654</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>882372</v>
+        <v>882378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>925975</v>
+        <v>924723</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8856782413228086</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8629100830973139</v>
+        <v>0.86291574780341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9055516267425885</v>
+        <v>0.9043265115339231</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1649</v>
@@ -2746,19 +2746,19 @@
         <v>1799008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1767136</v>
+        <v>1767151</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1827256</v>
+        <v>1828292</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8848755844233575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8691990794332355</v>
+        <v>0.8692064199036533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8987698175141077</v>
+        <v>0.8992796421970658</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>93244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74389</v>
+        <v>73462</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>113750</v>
+        <v>112734</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09227438264807122</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07361511823878905</v>
+        <v>0.07269797148937469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1125673208648104</v>
+        <v>0.1115612105042211</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -2796,19 +2796,19 @@
         <v>94942</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>77134</v>
+        <v>78351</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>116864</v>
+        <v>114816</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09284784109341308</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0754327762132506</v>
+        <v>0.07662294223879959</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1142862007904822</v>
+        <v>0.1122836244791073</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>172</v>
@@ -2817,19 +2817,19 @@
         <v>188186</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>165110</v>
+        <v>162704</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>217072</v>
+        <v>216423</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0925628106474311</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08121237946947574</v>
+        <v>0.08002889967222451</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1067711382394805</v>
+        <v>0.106451819107232</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>23911</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15476</v>
+        <v>15209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36542</v>
+        <v>35455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02366225747140393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01531553862381986</v>
+        <v>0.01505046111404825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03616241235368062</v>
+        <v>0.03508664930483133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2867,19 +2867,19 @@
         <v>21958</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13016</v>
+        <v>11794</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35625</v>
+        <v>32729</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02147391758377834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0127290500535055</v>
+        <v>0.01153395339947101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03483899226728084</v>
+        <v>0.03200684179803629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -2888,19 +2888,19 @@
         <v>45869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32846</v>
+        <v>32672</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61284</v>
+        <v>63222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02256160492921142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01615595872437371</v>
+        <v>0.01607037926825412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03014380817220363</v>
+        <v>0.03109668008735501</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>652836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>631048</v>
+        <v>630558</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>671365</v>
+        <v>671543</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8627076957162492</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8339160947498414</v>
+        <v>0.8332681726247856</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8871939235414492</v>
+        <v>0.8874287310462289</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>620</v>
@@ -3013,19 +3013,19 @@
         <v>685432</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>666423</v>
+        <v>666322</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>703220</v>
+        <v>703817</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8880586245364621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8634305915727642</v>
+        <v>0.8632993270169812</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.91110460260202</v>
+        <v>0.911877866554631</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1216</v>
@@ -3034,19 +3034,19 @@
         <v>1338268</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1311535</v>
+        <v>1307494</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1364894</v>
+        <v>1364961</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8755084019136101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8580195591528126</v>
+        <v>0.8553759076396419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8929273269743309</v>
+        <v>0.8929709702537753</v>
       </c>
     </row>
     <row r="13">
@@ -3063,19 +3063,19 @@
         <v>89152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70646</v>
+        <v>72453</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108674</v>
+        <v>110312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1178127403160473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09335765390444822</v>
+        <v>0.09574559136178204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.143609851077517</v>
+        <v>0.1457746316143931</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -3084,19 +3084,19 @@
         <v>83366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65825</v>
+        <v>64911</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101642</v>
+        <v>102285</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1080100905924551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08528362968164056</v>
+        <v>0.08410026018393257</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1316898942493998</v>
+        <v>0.1325224176245149</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -3105,19 +3105,19 @@
         <v>172518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147531</v>
+        <v>147466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198491</v>
+        <v>200241</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1128629871942881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09651622061205749</v>
+        <v>0.09647397963123633</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1298550330964721</v>
+        <v>0.1309994846459894</v>
       </c>
     </row>
     <row r="14">
@@ -3134,19 +3134,19 @@
         <v>14741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7902</v>
+        <v>7123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25625</v>
+        <v>25174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01947956396770351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01044183496960705</v>
+        <v>0.009412872201053239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03386225856170556</v>
+        <v>0.03326685790693108</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3155,19 +3155,19 @@
         <v>3034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9204</v>
+        <v>7993</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00393128487108271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001274562391326609</v>
+        <v>0.001259717410390162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01192467153327491</v>
+        <v>0.01035537897734479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -3176,19 +3176,19 @@
         <v>17775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10452</v>
+        <v>9705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28869</v>
+        <v>29743</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01162861089210182</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006838109205874033</v>
+        <v>0.006348916995795664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01888642998819164</v>
+        <v>0.01945821533220082</v>
       </c>
     </row>
     <row r="15">
@@ -3280,19 +3280,19 @@
         <v>752543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>726218</v>
+        <v>726161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>776396</v>
+        <v>773388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8051979296951386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7770310567591825</v>
+        <v>0.7769700950806284</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8307203244519045</v>
+        <v>0.8275014004720589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>780</v>
@@ -3301,19 +3301,19 @@
         <v>817039</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>789388</v>
+        <v>790336</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>842018</v>
+        <v>844745</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7978806676587694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.770877756608933</v>
+        <v>0.7718036932078545</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8222737906632607</v>
+        <v>0.8249368920035074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1504</v>
@@ -3322,19 +3322,19 @@
         <v>1569582</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1533115</v>
+        <v>1532110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1607703</v>
+        <v>1605556</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8013722922934344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7827534597935072</v>
+        <v>0.7822404307955457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8208355208624344</v>
+        <v>0.819739199592924</v>
       </c>
     </row>
     <row r="17">
@@ -3351,19 +3351,19 @@
         <v>141061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119288</v>
+        <v>121177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163481</v>
+        <v>166996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1509310022602829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1276344049478628</v>
+        <v>0.1296554561047015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1749192514945823</v>
+        <v>0.1786801318898298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -3372,19 +3372,19 @@
         <v>163802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141222</v>
+        <v>138106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188825</v>
+        <v>186897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1599605684810534</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1379101095047384</v>
+        <v>0.1348673877785544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1843974881608286</v>
+        <v>0.1825143586390785</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -3393,19 +3393,19 @@
         <v>304863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>270854</v>
+        <v>272494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>336922</v>
+        <v>337961</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1556518727284513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1382882836342967</v>
+        <v>0.1391258774494009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1720202885755407</v>
+        <v>0.1725509868480176</v>
       </c>
     </row>
     <row r="18">
@@ -3422,19 +3422,19 @@
         <v>41002</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29291</v>
+        <v>29515</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55317</v>
+        <v>55498</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04387106804457848</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.031340357994674</v>
+        <v>0.03158027043191804</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05918708905704515</v>
+        <v>0.05938087014591897</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -3443,19 +3443,19 @@
         <v>43171</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31277</v>
+        <v>30699</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57063</v>
+        <v>57338</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04215876386017717</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03054366708190464</v>
+        <v>0.02997921281788852</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05572445292024907</v>
+        <v>0.05599311458145783</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -3464,19 +3464,19 @@
         <v>84173</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68076</v>
+        <v>67263</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104569</v>
+        <v>102266</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04297583497811436</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03475718210243534</v>
+        <v>0.03434225270848029</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05338936430522763</v>
+        <v>0.05221340551977776</v>
       </c>
     </row>
     <row r="19">
@@ -3568,19 +3568,19 @@
         <v>2980987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2934362</v>
+        <v>2939088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3014917</v>
+        <v>3022894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8764629658483468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8627543476040229</v>
+        <v>0.8641437245979516</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8864388158930517</v>
+        <v>0.8887844103283103</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2846</v>
@@ -3589,19 +3589,19 @@
         <v>3069236</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3028609</v>
+        <v>3026811</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3109289</v>
+        <v>3110232</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8742144934809539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8626427593822914</v>
+        <v>0.8621306128531843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8856229893706281</v>
+        <v>0.8858913439642641</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5642</v>
@@ -3610,19 +3610,19 @@
         <v>6050223</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5986153</v>
+        <v>5994113</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6102137</v>
+        <v>6105483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8753208880544563</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8660515216967625</v>
+        <v>0.8672030798874192</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8828314895371306</v>
+        <v>0.8833155867439699</v>
       </c>
     </row>
     <row r="21">
@@ -3639,19 +3639,19 @@
         <v>340515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>307168</v>
+        <v>303099</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>381172</v>
+        <v>376398</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1001173995007021</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09031288924720064</v>
+        <v>0.08911652363406175</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1120713106304537</v>
+        <v>0.1106675828955305</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>340</v>
@@ -3660,19 +3660,19 @@
         <v>367910</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>331314</v>
+        <v>333245</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>407447</v>
+        <v>411008</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1047924263523786</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09436872453441568</v>
+        <v>0.09491854348102211</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1160537377370229</v>
+        <v>0.1170680319688097</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>658</v>
@@ -3681,19 +3681,19 @@
         <v>708425</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>662706</v>
+        <v>656704</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>764970</v>
+        <v>761950</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.102492009227097</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09587756285850157</v>
+        <v>0.09500916894772769</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1106726640359554</v>
+        <v>0.1102356675510829</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         <v>79654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62532</v>
+        <v>61566</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102304</v>
+        <v>101124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02341963465095112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01838549908470138</v>
+        <v>0.01810162247288775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03007912465623724</v>
+        <v>0.02973220735286819</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -3731,19 +3731,19 @@
         <v>73704</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57204</v>
+        <v>55459</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92599</v>
+        <v>94567</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02099308016666751</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01629345341056441</v>
+        <v>0.0157963331912886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02637508663475015</v>
+        <v>0.02693565089568909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>139</v>
@@ -3752,19 +3752,19 @@
         <v>153357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127161</v>
+        <v>129724</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179532</v>
+        <v>181797</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02218710271844665</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01839718123069092</v>
+        <v>0.01876791231076783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02597393077600156</v>
+        <v>0.02630159807995622</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>632502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>619164</v>
+        <v>620192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>643414</v>
+        <v>643610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9445712392464506</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.924652299313294</v>
+        <v>0.9261883002457074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9608673955575477</v>
+        <v>0.9611596358999908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>627</v>
@@ -4117,19 +4117,19 @@
         <v>632290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>620290</v>
+        <v>620269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>643077</v>
+        <v>642213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9507911802331683</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9327454356957201</v>
+        <v>0.9327144408757857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9670110515643319</v>
+        <v>0.9657121771049317</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1239</v>
@@ -4138,19 +4138,19 @@
         <v>1264792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1247285</v>
+        <v>1246729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1280438</v>
+        <v>1279584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9476704841602642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9345528290688389</v>
+        <v>0.9341359523849739</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9593936172080093</v>
+        <v>0.9587537168736642</v>
       </c>
     </row>
     <row r="5">
@@ -4167,19 +4167,19 @@
         <v>35092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24191</v>
+        <v>24073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47633</v>
+        <v>47146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05240589598888144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03612678797081919</v>
+        <v>0.03595065503076181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07113414037740087</v>
+        <v>0.07040802560594164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -4188,19 +4188,19 @@
         <v>27840</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18255</v>
+        <v>18227</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39649</v>
+        <v>39287</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04186441612746312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02745074014551587</v>
+        <v>0.02740816490383246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05962107218824898</v>
+        <v>0.05907674253744623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -4209,19 +4209,19 @@
         <v>62932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48275</v>
+        <v>47589</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80446</v>
+        <v>79202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04715333363912041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03617082737268763</v>
+        <v>0.03565696000778708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06027545643201573</v>
+        <v>0.05934366132490564</v>
       </c>
     </row>
     <row r="6">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7718</v>
+        <v>7074</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003022864764667965</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01152550741103068</v>
+        <v>0.01056484409465541</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -4259,19 +4259,19 @@
         <v>4884</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1881</v>
+        <v>1811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10546</v>
+        <v>10768</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007344403639368548</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002829137125125335</v>
+        <v>0.00272268334070696</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01585901055343629</v>
+        <v>0.01619143112304072</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -4280,19 +4280,19 @@
         <v>6908</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2928</v>
+        <v>2889</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13908</v>
+        <v>13315</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005176182200615411</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002193847833593273</v>
+        <v>0.002164789889702091</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01042057270935067</v>
+        <v>0.009976633385831376</v>
       </c>
     </row>
     <row r="7">
@@ -4384,19 +4384,19 @@
         <v>903058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>881136</v>
+        <v>882648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>921980</v>
+        <v>923709</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8851414092044386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8636538275003589</v>
+        <v>0.8651362315374929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9036871955872309</v>
+        <v>0.9053822675737053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>849</v>
@@ -4405,19 +4405,19 @@
         <v>904688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>880637</v>
+        <v>882219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>924833</v>
+        <v>926429</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8741090757930956</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8508706327554505</v>
+        <v>0.8523999377602122</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.893572687217543</v>
+        <v>0.8951148657783065</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1690</v>
@@ -4426,19 +4426,19 @@
         <v>1807747</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1776852</v>
+        <v>1773967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1836367</v>
+        <v>1838599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8795856786297199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8645531562330525</v>
+        <v>0.863149257097016</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.893511185579225</v>
+        <v>0.8945968914182457</v>
       </c>
     </row>
     <row r="9">
@@ -4455,19 +4455,19 @@
         <v>74410</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57520</v>
+        <v>58339</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>92669</v>
+        <v>93306</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07293411536733067</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05637867750140493</v>
+        <v>0.0571817320937718</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0908305664392689</v>
+        <v>0.09145445329060167</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -4476,19 +4476,19 @@
         <v>87810</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>70983</v>
+        <v>71390</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>106430</v>
+        <v>108493</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08484240085181891</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0685832820366075</v>
+        <v>0.06897659085839353</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1028321893452687</v>
+        <v>0.104825642142604</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>151</v>
@@ -4497,19 +4497,19 @@
         <v>162221</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>140031</v>
+        <v>135798</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>188273</v>
+        <v>187792</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07893096329531549</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06813421196894812</v>
+        <v>0.06607444680419117</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09160707430148017</v>
+        <v>0.09137299320559954</v>
       </c>
     </row>
     <row r="10">
@@ -4526,19 +4526,19 @@
         <v>42773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31425</v>
+        <v>30708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59268</v>
+        <v>57543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04192447542823074</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03080133034688439</v>
+        <v>0.03009870166678356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0580917863194519</v>
+        <v>0.05640147819234824</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -4547,19 +4547,19 @@
         <v>42485</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30312</v>
+        <v>31095</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56613</v>
+        <v>57206</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04104852335508547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02928729762822208</v>
+        <v>0.03004390066660802</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05469912890120295</v>
+        <v>0.05527210061125592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -4568,19 +4568,19 @@
         <v>85258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68207</v>
+        <v>67631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104663</v>
+        <v>105864</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04148335807496458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03318728599401235</v>
+        <v>0.03290684296315036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05092518901051746</v>
+        <v>0.05150982571024742</v>
       </c>
     </row>
     <row r="11">
@@ -4672,19 +4672,19 @@
         <v>572850</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>548073</v>
+        <v>546738</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>598447</v>
+        <v>596586</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7594444114938097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7265967243590321</v>
+        <v>0.7248263253585324</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7933783480613885</v>
+        <v>0.7909109979561051</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>550</v>
@@ -4693,19 +4693,19 @@
         <v>587395</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>562596</v>
+        <v>559756</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>611729</v>
+        <v>611375</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7519029700701956</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7201594532084297</v>
+        <v>0.7165236556771057</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7830526454213252</v>
+        <v>0.7825988526380153</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1078</v>
@@ -4714,19 +4714,19 @@
         <v>1160245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1125810</v>
+        <v>1125362</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1196383</v>
+        <v>1195385</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7556076114133843</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7331816560157894</v>
+        <v>0.7328899457303968</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7791425325669928</v>
+        <v>0.7784923724199918</v>
       </c>
     </row>
     <row r="13">
@@ -4743,19 +4743,19 @@
         <v>138126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115227</v>
+        <v>116727</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159233</v>
+        <v>163912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1831174249054426</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1527600364803979</v>
+        <v>0.1547488384799292</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2111003406448326</v>
+        <v>0.2173024817428595</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -4764,19 +4764,19 @@
         <v>142078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122235</v>
+        <v>120140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167244</v>
+        <v>163926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1818688316661859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1564689682857942</v>
+        <v>0.1537866652673973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2140825064942206</v>
+        <v>0.2098351450647496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -4785,19 +4785,19 @@
         <v>280204</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249403</v>
+        <v>250912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312453</v>
+        <v>313286</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1824821879034288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1624234580033271</v>
+        <v>0.1634061919441201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2034842308915394</v>
+        <v>0.2040268395989969</v>
       </c>
     </row>
     <row r="14">
@@ -4814,19 +4814,19 @@
         <v>43326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31218</v>
+        <v>31985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58866</v>
+        <v>58755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05743816360074777</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04138688498720804</v>
+        <v>0.04240287694266762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07804030941890411</v>
+        <v>0.07789277230518275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -4835,19 +4835,19 @@
         <v>51738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39024</v>
+        <v>39041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66960</v>
+        <v>67853</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06622819826361853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04995310310674474</v>
+        <v>0.04997538464158924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0857125234214184</v>
+        <v>0.0868566229241295</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -4856,19 +4856,19 @@
         <v>95064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75659</v>
+        <v>76156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116109</v>
+        <v>115900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06191020068318683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04927299850151025</v>
+        <v>0.04959674223304626</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07561565209074497</v>
+        <v>0.07547936013127049</v>
       </c>
     </row>
     <row r="15">
@@ -4960,19 +4960,19 @@
         <v>744178</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>718864</v>
+        <v>720209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>765288</v>
+        <v>767265</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8065696543758626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7791331539339823</v>
+        <v>0.780591362897822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8294490967733924</v>
+        <v>0.8315914929178758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>755</v>
@@ -4981,19 +4981,19 @@
         <v>819613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>792171</v>
+        <v>789949</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>845697</v>
+        <v>846907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7937323489567031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7671573804994078</v>
+        <v>0.7650056780961011</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8189925640496674</v>
+        <v>0.8201644337880178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1496</v>
@@ -5002,19 +5002,19 @@
         <v>1563791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1526186</v>
+        <v>1529158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1595787</v>
+        <v>1598634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7997900266754584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7805572473760326</v>
+        <v>0.7820770311774503</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8161539722123415</v>
+        <v>0.8176102957515903</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>157073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134645</v>
+        <v>134235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179818</v>
+        <v>180787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1702413877220619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1459335541073268</v>
+        <v>0.1454886504988563</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1948936490126111</v>
+        <v>0.1959436868907424</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -5052,19 +5052,19 @@
         <v>175603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153755</v>
+        <v>150838</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204631</v>
+        <v>201525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1700581517785491</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1488997488075472</v>
+        <v>0.1460750533939737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.198169170913406</v>
+        <v>0.1951614589579381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>316</v>
@@ -5073,19 +5073,19 @@
         <v>332676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299393</v>
+        <v>301571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366265</v>
+        <v>367784</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1701446172988471</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1531226185033267</v>
+        <v>0.1542361369954862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1873234572266577</v>
+        <v>0.1881003718411405</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>21395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12924</v>
+        <v>13981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32100</v>
+        <v>33154</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02318895790207556</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01400718607873287</v>
+        <v>0.01515290078842405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03479124260979988</v>
+        <v>0.03593393450038566</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -5123,19 +5123,19 @@
         <v>37390</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24980</v>
+        <v>25891</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50489</v>
+        <v>51701</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03620949926474779</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02419143653561782</v>
+        <v>0.02507367869553053</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0488947765342971</v>
+        <v>0.05006894904142327</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -5144,19 +5144,19 @@
         <v>58785</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44595</v>
+        <v>43559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75278</v>
+        <v>77341</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0300653560256945</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02280771961244283</v>
+        <v>0.02227796394290444</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03850029200885594</v>
+        <v>0.03955526339632982</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>2852589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2810117</v>
+        <v>2806883</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2893759</v>
+        <v>2895116</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8472681204208041</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8346532115517956</v>
+        <v>0.8336925588703532</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8594963494828098</v>
+        <v>0.8598992320513119</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2781</v>
@@ -5269,19 +5269,19 @@
         <v>2943986</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2900382</v>
+        <v>2899080</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2988955</v>
+        <v>2985486</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8378318538716859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8254223785492973</v>
+        <v>0.8250520041916015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8506297136505742</v>
+        <v>0.8496422417897304</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5503</v>
@@ -5290,19 +5290,19 @@
         <v>5796576</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5737413</v>
+        <v>5736494</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5858557</v>
+        <v>5864391</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8424491824694531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8338507133529698</v>
+        <v>0.8337171235947731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8514572344082809</v>
+        <v>0.8523050503603209</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>404701</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>367490</v>
+        <v>365924</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>442384</v>
+        <v>447087</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1202030864526523</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1091508538959868</v>
+        <v>0.1086857390165421</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1313955486756643</v>
+        <v>0.1327925068678562</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>403</v>
@@ -5340,19 +5340,19 @@
         <v>433332</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>390553</v>
+        <v>394552</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>472676</v>
+        <v>473902</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1233223348256931</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1111478634521151</v>
+        <v>0.1122859382648018</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1345193953569256</v>
+        <v>0.1348683105290078</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>786</v>
@@ -5361,19 +5361,19 @@
         <v>838033</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>784850</v>
+        <v>779987</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>894357</v>
+        <v>892228</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1217960325914979</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1140666967578349</v>
+        <v>0.1133599713345743</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1299820106006906</v>
+        <v>0.1296725138332763</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>109518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90400</v>
+        <v>89743</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>133270</v>
+        <v>134849</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03252879312654365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02685037293110675</v>
+        <v>0.02665511280698014</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03958356536776625</v>
+        <v>0.04005251622729084</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -5411,19 +5411,19 @@
         <v>136497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116700</v>
+        <v>118180</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162885</v>
+        <v>161419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03884581130262092</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03321166134573175</v>
+        <v>0.03363297069464887</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04635558431173564</v>
+        <v>0.04593829070175106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>226</v>
@@ -5432,19 +5432,19 @@
         <v>246015</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>215526</v>
+        <v>217076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>278140</v>
+        <v>281161</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03575478493904891</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03132356712700736</v>
+        <v>0.03154887406000335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04042360153349987</v>
+        <v>0.04086277101947399</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>671010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>659783</v>
+        <v>660888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>678116</v>
+        <v>677840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9730082625726859</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9567291352225757</v>
+        <v>0.9583312844967065</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9833119531662984</v>
+        <v>0.9829120462566519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1199</v>
@@ -5797,19 +5797,19 @@
         <v>707803</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>695390</v>
+        <v>696000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>715441</v>
+        <v>715088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9649926643766843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9480693956225713</v>
+        <v>0.9489015965807512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9754065106534533</v>
+        <v>0.9749250955252684</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1908</v>
@@ -5818,19 +5818,19 @@
         <v>1378812</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1364941</v>
+        <v>1364645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1389444</v>
+        <v>1390538</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9688769549334194</v>
+        <v>0.9688769549334196</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9591300769047002</v>
+        <v>0.9589218964783756</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9763484223180554</v>
+        <v>0.977117252499434</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>14123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8062</v>
+        <v>8100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23807</v>
+        <v>22976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02047952012237782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01168984593666973</v>
+        <v>0.01174542660435252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03452197641729918</v>
+        <v>0.03331625752892792</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -5868,19 +5868,19 @@
         <v>21523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14679</v>
+        <v>14746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32862</v>
+        <v>33080</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0293438138246788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02001309728916429</v>
+        <v>0.02010446945308815</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04480217893335747</v>
+        <v>0.04510045274843497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -5889,19 +5889,19 @@
         <v>35646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25832</v>
+        <v>24335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49769</v>
+        <v>48674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02504825266030431</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01815168436541587</v>
+        <v>0.01710022281922055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03497205867413845</v>
+        <v>0.03420250194805947</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>4491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1732</v>
+        <v>1501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10761</v>
+        <v>9642</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006512217304936279</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002511625444962164</v>
+        <v>0.002176174604935138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0156046507486037</v>
+        <v>0.01398156597746321</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -5939,19 +5939,19 @@
         <v>4154</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1738</v>
+        <v>1782</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8051</v>
+        <v>8292</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00566352179863685</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00236961873712084</v>
+        <v>0.002429611226500265</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01097581246506443</v>
+        <v>0.01130559071373051</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -5960,19 +5960,19 @@
         <v>8645</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4621</v>
+        <v>4569</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14425</v>
+        <v>14801</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.006074792406276197</v>
+        <v>0.006074792406276198</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003246894528857791</v>
+        <v>0.00321049922902155</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01013603117553404</v>
+        <v>0.01040050300294596</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>970499</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>950030</v>
+        <v>949966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>986494</v>
+        <v>988268</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9277335146854789</v>
+        <v>0.9277335146854792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9081665499589732</v>
+        <v>0.9081047148767558</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.943023396989686</v>
+        <v>0.9447190048002713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1401</v>
@@ -6085,19 +6085,19 @@
         <v>986035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968665</v>
+        <v>970344</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>999034</v>
+        <v>1000795</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9245093119917529</v>
+        <v>0.9245093119917528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9082228209500581</v>
+        <v>0.9097971625145395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9366965580647207</v>
+        <v>0.9383482643261115</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2299</v>
@@ -6106,19 +6106,19 @@
         <v>1956535</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1929755</v>
+        <v>1931984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1979580</v>
+        <v>1979332</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9261058064933216</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9134300555847608</v>
+        <v>0.914485074372918</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9370141039301285</v>
+        <v>0.9368967818831556</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>47126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33800</v>
+        <v>34251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62260</v>
+        <v>64406</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04504960443271438</v>
+        <v>0.04504960443271439</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03231058822093619</v>
+        <v>0.03274202387241175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05951614312035532</v>
+        <v>0.0615675927382846</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>76</v>
@@ -6156,19 +6156,19 @@
         <v>55731</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>43598</v>
+        <v>43755</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71080</v>
+        <v>68754</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0522537806818671</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04087774376152906</v>
+        <v>0.04102490577495934</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06664507416623618</v>
+        <v>0.0644638896244822</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>118</v>
@@ -6177,19 +6177,19 @@
         <v>102858</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84759</v>
+        <v>84105</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124400</v>
+        <v>123159</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04868656457833749</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04011961939505718</v>
+        <v>0.03981036751019781</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05888345603644483</v>
+        <v>0.05829607751814113</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>28471</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18394</v>
+        <v>17483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42404</v>
+        <v>43560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02721688088180661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0175830356388768</v>
+        <v>0.01671236623536112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04053552149162248</v>
+        <v>0.04164049513190835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6227,19 +6227,19 @@
         <v>24783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17070</v>
+        <v>16930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35248</v>
+        <v>35170</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0232369073263801</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01600517348876005</v>
+        <v>0.01587379165925282</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0330487364722651</v>
+        <v>0.03297510213099402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -6248,19 +6248,19 @@
         <v>53255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39138</v>
+        <v>40000</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69661</v>
+        <v>70631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02520762892834108</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01852534777762915</v>
+        <v>0.01893380907539807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03297353216032786</v>
+        <v>0.03343250158078397</v>
       </c>
     </row>
     <row r="11">
@@ -6352,19 +6352,19 @@
         <v>712053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>689743</v>
+        <v>690861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>730411</v>
+        <v>731163</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8936255508474041</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8656260511118145</v>
+        <v>0.8670297229241166</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9166637781050897</v>
+        <v>0.917608030119919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>943</v>
@@ -6373,19 +6373,19 @@
         <v>727747</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>710850</v>
+        <v>711532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>742516</v>
+        <v>741880</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9064721348732026</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8854260291403199</v>
+        <v>0.8862753667538719</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9248684794600872</v>
+        <v>0.924076247579673</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1541</v>
@@ -6394,19 +6394,19 @@
         <v>1439800</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1412021</v>
+        <v>1415092</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1463024</v>
+        <v>1462049</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.900073015905231</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8827074254300235</v>
+        <v>0.8846273733716377</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9145913597335805</v>
+        <v>0.9139815301871934</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>80141</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63136</v>
+        <v>61767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102583</v>
+        <v>100448</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1005770914373623</v>
+        <v>0.1005770914373624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07923520644090486</v>
+        <v>0.07751786273578255</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1287414750192779</v>
+        <v>0.126061536395926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -6444,19 +6444,19 @@
         <v>65632</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51026</v>
+        <v>52317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81943</v>
+        <v>81226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08174987572027226</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06355688233847105</v>
+        <v>0.06516487310354355</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1020676835554134</v>
+        <v>0.1011735950731151</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -6465,19 +6465,19 @@
         <v>145773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123377</v>
+        <v>124917</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174022</v>
+        <v>171148</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09112805695252657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07712789749066788</v>
+        <v>0.078090204560456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1087875940093836</v>
+        <v>0.1069907865866064</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>4619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1009</v>
+        <v>1326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11095</v>
+        <v>10328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005797357715233495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00126585384635918</v>
+        <v>0.001664024977071701</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01392461379675578</v>
+        <v>0.01296165096211158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6515,19 +6515,19 @@
         <v>9456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5199</v>
+        <v>5293</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15827</v>
+        <v>15876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01177798940652514</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00647533486073086</v>
+        <v>0.006593402019770139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01971381261267644</v>
+        <v>0.01977469708971922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -6536,19 +6536,19 @@
         <v>14075</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8081</v>
+        <v>8790</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22519</v>
+        <v>22824</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.008798927142242251</v>
+        <v>0.008798927142242249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005052006528667825</v>
+        <v>0.005494689647979224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01407772537136553</v>
+        <v>0.01426793119090193</v>
       </c>
     </row>
     <row r="15">
@@ -6640,19 +6640,19 @@
         <v>841616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>817372</v>
+        <v>811870</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>864950</v>
+        <v>864025</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8570879534830507</v>
+        <v>0.8570879534830508</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8323983518173046</v>
+        <v>0.826795566556209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8808516224312997</v>
+        <v>0.8799092095073832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1271</v>
@@ -6661,19 +6661,19 @@
         <v>916221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>893380</v>
+        <v>892749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>938020</v>
+        <v>937163</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8289774190095105</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8083119218735888</v>
+        <v>0.807741136229742</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8487011483275109</v>
+        <v>0.8479254529263941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2128</v>
@@ -6682,19 +6682,19 @@
         <v>1757836</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1720690</v>
+        <v>1724912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1789929</v>
+        <v>1790960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8422024185165066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8244054382719029</v>
+        <v>0.8264281054121732</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8575786787331338</v>
+        <v>0.8580728757844123</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>109273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90301</v>
+        <v>90738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133418</v>
+        <v>134484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1112818157340585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09196153618873643</v>
+        <v>0.09240651258511466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1358711181598665</v>
+        <v>0.1369566769070484</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -6732,19 +6732,19 @@
         <v>146173</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125677</v>
+        <v>127042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164819</v>
+        <v>167382</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1322541502396129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1137098780981761</v>
+        <v>0.1149447105633462</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1491250149344212</v>
+        <v>0.1514441196539099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>325</v>
@@ -6753,19 +6753,19 @@
         <v>255446</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229352</v>
+        <v>229322</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>286224</v>
+        <v>287174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1223874181161955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1098856220197247</v>
+        <v>0.1098710304805033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1371338109109004</v>
+        <v>0.137589023832221</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>31059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20493</v>
+        <v>20370</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46827</v>
+        <v>48521</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03163023078289075</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0208694197851165</v>
+        <v>0.02074403286936077</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04768737136853157</v>
+        <v>0.04941305750046317</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -6803,19 +6803,19 @@
         <v>42848</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32935</v>
+        <v>33231</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56958</v>
+        <v>57633</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03876843075087655</v>
+        <v>0.03876843075087656</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02979889354530743</v>
+        <v>0.03006659728681115</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05153414561301714</v>
+        <v>0.05214556204955969</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -6824,19 +6824,19 @@
         <v>73908</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57380</v>
+        <v>57227</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93007</v>
+        <v>92371</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03541016336729799</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02749129333573762</v>
+        <v>0.02741832362683929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04456086823138401</v>
+        <v>0.04425633703181627</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>3195178</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3157007</v>
+        <v>3157222</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3231339</v>
+        <v>3230832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9091460252614817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8982849205761915</v>
+        <v>0.8983459329859443</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9194350832490683</v>
+        <v>0.9192907616231694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4814</v>
@@ -6949,19 +6949,19 @@
         <v>3337805</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3302405</v>
+        <v>3307721</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3369432</v>
+        <v>3371829</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9001375775062438</v>
+        <v>0.9001375775062439</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8905909359810013</v>
+        <v>0.8920245427785171</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9086668707865232</v>
+        <v>0.9093131744155369</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7876</v>
@@ -6970,19 +6970,19 @@
         <v>6532984</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6480530</v>
+        <v>6478668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6581108</v>
+        <v>6581549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9045210527235373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8972585606617293</v>
+        <v>0.8970008362622321</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9111841307507393</v>
+        <v>0.911245102987158</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>250664</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>219966</v>
+        <v>218745</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>284071</v>
+        <v>286850</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0713230402596938</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0625883926952889</v>
+        <v>0.06224107814266409</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08082859811385922</v>
+        <v>0.08161934860454075</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>401</v>
@@ -7020,19 +7020,19 @@
         <v>289059</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>259103</v>
+        <v>259011</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>321170</v>
+        <v>318371</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07795321410250067</v>
+        <v>0.07795321410250068</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06987468338700936</v>
+        <v>0.06984996374814932</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08661302512011532</v>
+        <v>0.08585813191033438</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>641</v>
@@ -7041,19 +7041,19 @@
         <v>539722</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>499753</v>
+        <v>498150</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>587046</v>
+        <v>588748</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07472699760927717</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06919307230150158</v>
+        <v>0.0689711073574835</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08127923040486545</v>
+        <v>0.0815147745130665</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>68641</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51799</v>
+        <v>52124</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89050</v>
+        <v>90802</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01953093447882457</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01473863682658013</v>
+        <v>0.01483112481977732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02533794617847088</v>
+        <v>0.02583642953621962</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -7091,19 +7091,19 @@
         <v>81242</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66211</v>
+        <v>65903</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97082</v>
+        <v>98829</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02190920839125543</v>
+        <v>0.02190920839125544</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01785587925696757</v>
+        <v>0.01777264569445527</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02618101082017088</v>
+        <v>0.02665216182149488</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -7112,19 +7112,19 @@
         <v>149883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124475</v>
+        <v>127279</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174948</v>
+        <v>176670</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02075194966718564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01723418506779883</v>
+        <v>0.01762237718052254</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02422237324322346</v>
+        <v>0.02446069087037678</v>
       </c>
     </row>
     <row r="23">
